--- a/src/models/data/patient.xlsx
+++ b/src/models/data/patient.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Local\ProjectTotNghiep\Source\MEDRE_BE\src\models\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4DD2D7-A3C6-4517-AC19-30CB1ECC46D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997001B7-FF2E-4057-A5EA-6E6394604D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
   <si>
     <t>phone_number</t>
   </si>
@@ -339,6 +339,63 @@
   </si>
   <si>
     <t>id_user</t>
+  </si>
+  <si>
+    <t>1ac77a4a-bf58-46ea-bf95-799962544823</t>
+  </si>
+  <si>
+    <t>f56d5257-9333-4d07-ae4d-9e380fd299fc</t>
+  </si>
+  <si>
+    <t>e7b707c0-99c8-429f-9ad0-9d2778e37ea6</t>
+  </si>
+  <si>
+    <t>4027136c-dcd7-4774-bf45-6516102dc66b</t>
+  </si>
+  <si>
+    <t>324ba22f-b80b-431a-a9af-972aefa578c7</t>
+  </si>
+  <si>
+    <t>855038e6-0f4f-4e89-9902-48b783992f2a</t>
+  </si>
+  <si>
+    <t>4372e6d4-e457-408b-8020-5d504f229de8</t>
+  </si>
+  <si>
+    <t>1ae6bc24-d566-48c8-a057-d5aee230144f</t>
+  </si>
+  <si>
+    <t>00701bf4-9ed4-4beb-8422-c0e7192da74a</t>
+  </si>
+  <si>
+    <t>f1eb7322-bec8-40f9-b2b1-5096a4cbffc0</t>
+  </si>
+  <si>
+    <t>a0262b9a-f9cd-4765-bbac-ffd0af3f9e2c</t>
+  </si>
+  <si>
+    <t>50795ec8-9546-496b-a44d-c662aa9bc7c2</t>
+  </si>
+  <si>
+    <t>f826f358-267d-43fa-9af9-e0ea0caedb34</t>
+  </si>
+  <si>
+    <t>34890e38-23e5-4e4d-86b9-86a119cfb19c</t>
+  </si>
+  <si>
+    <t>06202431-a375-49af-9b17-c1a28f807067</t>
+  </si>
+  <si>
+    <t>2ec5079b-4fb4-4077-ae6e-2d0aab1218b8</t>
+  </si>
+  <si>
+    <t>6258b4b1-b0b1-42f1-aedb-7ff932c60eda</t>
+  </si>
+  <si>
+    <t>74e7911a-79c5-43ff-a3c3-c5d0408b4413</t>
+  </si>
+  <si>
+    <t>bb8ec16b-e8b7-4556-8335-2044d62dc659</t>
   </si>
 </sst>
 </file>
@@ -386,8 +443,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,7 +730,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,30 +768,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -756,396 +814,399 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>37</v>
+      <c r="A9" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G22">
+    <sortCondition descending="1" ref="A1:A22"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/models/data/patient.xlsx
+++ b/src/models/data/patient.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997001B7-FF2E-4057-A5EA-6E6394604D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2374E0B-ED09-4EC9-AEC6-F40C93D662DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,15 +194,6 @@
     <t>0744965913</t>
   </si>
   <si>
-    <t>0168546319</t>
-  </si>
-  <si>
-    <t>0164461389</t>
-  </si>
-  <si>
-    <t>0168543265</t>
-  </si>
-  <si>
     <t>0369256132</t>
   </si>
   <si>
@@ -396,6 +387,15 @@
   </si>
   <si>
     <t>bb8ec16b-e8b7-4556-8335-2044d62dc659</t>
+  </si>
+  <si>
+    <t>0368546319</t>
+  </si>
+  <si>
+    <t>'0368543265</t>
+  </si>
+  <si>
+    <t>'0564461389</t>
   </si>
 </sst>
 </file>
@@ -443,9 +443,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,7 +731,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,7 +749,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -768,22 +769,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -791,7 +792,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -814,22 +815,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -837,7 +838,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -846,13 +847,13 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -860,22 +861,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -883,22 +884,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
         <v>21</v>
@@ -906,22 +907,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>52</v>
+      <c r="C8" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
@@ -929,22 +930,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -952,22 +953,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
         <v>22</v>
@@ -975,22 +976,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
         <v>28</v>
@@ -998,22 +999,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
@@ -1021,7 +1022,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -1030,13 +1031,13 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
@@ -1044,22 +1045,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
         <v>24</v>
@@ -1067,7 +1068,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -1076,13 +1077,13 @@
         <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1090,22 +1091,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
         <v>23</v>
@@ -1113,22 +1114,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
         <v>30</v>
@@ -1136,7 +1137,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1159,22 +1160,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s">
         <v>27</v>
@@ -1182,22 +1183,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>

--- a/src/models/data/patient.xlsx
+++ b/src/models/data/patient.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2374E0B-ED09-4EC9-AEC6-F40C93D662DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C412735-4C8A-4107-890C-D8FC0037D577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,10 +392,10 @@
     <t>0368546319</t>
   </si>
   <si>
-    <t>'0368543265</t>
-  </si>
-  <si>
-    <t>'0564461389</t>
+    <t>0368543265</t>
+  </si>
+  <si>
+    <t>0564461389</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,7 +1004,7 @@
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D12" t="s">
@@ -1119,7 +1119,7 @@
       <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D17" t="s">

--- a/src/models/data/patient.xlsx
+++ b/src/models/data/patient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C412735-4C8A-4107-890C-D8FC0037D577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606F1524-1392-4887-B715-949D84E98843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
   <si>
     <t>phone_number</t>
   </si>
@@ -396,6 +396,69 @@
   </si>
   <si>
     <t>0564461389</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>updatedAt</t>
+  </si>
+  <si>
+    <t>2023-04-16T03:42:46.836Z</t>
+  </si>
+  <si>
+    <t>2023-04-09T03:20:31.077Z</t>
+  </si>
+  <si>
+    <t>2023-04-19T12:32:13.787Z</t>
+  </si>
+  <si>
+    <t>2023-04-20T18:59:51.241Z</t>
+  </si>
+  <si>
+    <t>2023-04-12T20:57:30.058Z</t>
+  </si>
+  <si>
+    <t>2023-04-18T13:51:56.194Z</t>
+  </si>
+  <si>
+    <t>2023-04-20T02:09:40.846Z</t>
+  </si>
+  <si>
+    <t>2023-04-21T01:45:38.618Z</t>
+  </si>
+  <si>
+    <t>2023-04-23T04:44:42.471Z</t>
+  </si>
+  <si>
+    <t>2023-05-02T13:49:47.409Z</t>
+  </si>
+  <si>
+    <t>2023-05-02T10:13:51.564Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T12:04:43.165Z</t>
+  </si>
+  <si>
+    <t>2023-05-02T12:12:13.632Z</t>
+  </si>
+  <si>
+    <t>2023-05-16T18:31:08.185Z</t>
+  </si>
+  <si>
+    <t>2023-05-08T08:54:59.583Z</t>
+  </si>
+  <si>
+    <t>2023-05-07T11:40:13.109Z</t>
+  </si>
+  <si>
+    <t>2023-05-08T12:27:27.314Z</t>
+  </si>
+  <si>
+    <t>2023-05-10T21:47:27.523Z</t>
+  </si>
+  <si>
+    <t>2023-05-09T04:25:04.137Z</t>
   </si>
 </sst>
 </file>
@@ -728,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,9 +805,10 @@
     <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="9" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -766,8 +830,14 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -789,8 +859,14 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -812,8 +888,14 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -835,8 +917,14 @@
       <c r="G4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -858,8 +946,14 @@
       <c r="G5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -881,8 +975,14 @@
       <c r="G6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -904,8 +1004,14 @@
       <c r="G7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -927,8 +1033,14 @@
       <c r="G8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -950,8 +1062,14 @@
       <c r="G9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -973,8 +1091,14 @@
       <c r="G10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -996,8 +1120,14 @@
       <c r="G11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -1019,8 +1149,14 @@
       <c r="G12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -1042,8 +1178,14 @@
       <c r="G13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -1065,8 +1207,14 @@
       <c r="G14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -1088,8 +1236,14 @@
       <c r="G15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -1111,8 +1265,14 @@
       <c r="G16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -1134,8 +1294,14 @@
       <c r="G17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -1157,8 +1323,14 @@
       <c r="G18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -1180,8 +1352,14 @@
       <c r="G19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -1202,6 +1380,12 @@
       </c>
       <c r="G20" t="s">
         <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
